--- a/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7740"/>
+    <workbookView windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10290,14 +10290,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10346,12 +10346,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
@@ -10370,54 +10364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10431,7 +10387,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10445,16 +10439,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10468,24 +10463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10502,6 +10481,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10535,7 +10529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10547,7 +10547,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10559,55 +10589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10625,7 +10613,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10637,7 +10679,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10649,73 +10709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10740,44 +10734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10812,6 +10768,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10826,155 +10791,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11006,24 +11000,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11361,219 +11353,219 @@
   <sheetPr/>
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8769230769231" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.8787878787879" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.8769230769231" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.7538461538462" style="13" customWidth="1"/>
-    <col min="3" max="3" width="31.8769230769231" style="14" customWidth="1"/>
-    <col min="4" max="4" width="31.8769230769231" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.12307692307692" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27.3769230769231" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.2538461538462" style="13" customWidth="1"/>
-    <col min="8" max="8" width="6.37692307692308" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.87692307692308" style="13" customWidth="1"/>
-    <col min="10" max="16" width="12.5" style="13" customWidth="1"/>
-    <col min="17" max="18" width="26.6230769230769" style="13" customWidth="1"/>
-    <col min="19" max="19" width="7" style="13" customWidth="1"/>
-    <col min="20" max="20" width="31.8769230769231" style="14" customWidth="1"/>
-    <col min="21" max="21" width="18" style="13" customWidth="1"/>
-    <col min="22" max="22" width="10.6230769230769" style="13" customWidth="1"/>
-    <col min="23" max="23" width="31.8769230769231" style="13" customWidth="1"/>
-    <col min="24" max="24" width="16.1230769230769" style="13" customWidth="1"/>
-    <col min="25" max="25" width="20" style="13" customWidth="1"/>
-    <col min="26" max="26" width="31.8769230769231" style="13" customWidth="1"/>
-    <col min="27" max="27" width="21.8769230769231" style="13" customWidth="1"/>
-    <col min="28" max="28" width="20.8769230769231" style="13" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" customWidth="1"/>
-    <col min="30" max="30" width="31.8769230769231" style="13" customWidth="1"/>
-    <col min="31" max="31" width="21.8769230769231" style="13" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" customWidth="1"/>
-    <col min="33" max="33" width="31" style="13" customWidth="1"/>
-    <col min="34" max="34" width="8.87692307692308" style="13" customWidth="1"/>
-    <col min="35" max="36" width="31.8769230769231" style="13" customWidth="1"/>
-    <col min="37" max="37" width="21.8769230769231" style="13" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" customWidth="1"/>
-    <col min="39" max="39" width="31" style="13" customWidth="1"/>
-    <col min="40" max="40" width="5.12307692307692" style="13" customWidth="1"/>
-    <col min="41" max="16384" width="10.8769230769231" style="13"/>
+    <col min="1" max="1" width="11.8787878787879" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.7575757575758" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.8787878787879" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.8787878787879" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.12121212121212" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.3787878787879" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.2575757575758" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.37878787878788" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.87878787878788" style="12" customWidth="1"/>
+    <col min="10" max="16" width="12.5" style="12" customWidth="1"/>
+    <col min="17" max="18" width="26.6212121212121" style="12" customWidth="1"/>
+    <col min="19" max="19" width="7" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.8787878787879" style="13" customWidth="1"/>
+    <col min="21" max="21" width="18" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10.6212121212121" style="12" customWidth="1"/>
+    <col min="23" max="23" width="31.8787878787879" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.1212121212121" style="12" customWidth="1"/>
+    <col min="25" max="25" width="20" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.8787878787879" style="12" customWidth="1"/>
+    <col min="27" max="27" width="21.8787878787879" style="12" customWidth="1"/>
+    <col min="28" max="28" width="20.8787878787879" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.5" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.8787878787879" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.8787878787879" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="12" customWidth="1"/>
+    <col min="33" max="33" width="31" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.87878787878788" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.8787878787879" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.8787878787879" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
+    <col min="39" max="39" width="31" style="12" customWidth="1"/>
+    <col min="40" max="40" width="5.12121212121212" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.8787878787879" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:40">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="11" customFormat="1" ht="16.2" spans="1:40">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>43874</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>43875</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
         <v>2</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16">
         <v>23</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="19" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="W2" s="13"/>
+      <c r="Z2" s="13"/>
       <c r="AA2" s="12" t="s">
         <v>47</v>
       </c>
@@ -11583,60 +11575,60 @@
       <c r="AC2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
+      <c r="AD2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
     <row r="3" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>43874</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>43875</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <v>14</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="19" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="Z3" s="20"/>
+      <c r="W3" s="13"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="12" t="s">
         <v>47</v>
       </c>
@@ -11646,58 +11638,58 @@
       <c r="AC3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
+      <c r="AD3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
     </row>
     <row r="4" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>43874</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>43875</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16">
         <v>4</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="19" t="s">
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="W4" s="13"/>
+      <c r="Z4" s="13"/>
       <c r="AA4" s="12" t="s">
         <v>47</v>
       </c>
@@ -11707,58 +11699,58 @@
       <c r="AC4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
+      <c r="AD4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>43874</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>43875</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16">
         <v>3</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="Z5" s="20"/>
+      <c r="W5" s="13"/>
+      <c r="Z5" s="13"/>
       <c r="AA5" s="12" t="s">
         <v>47</v>
       </c>
@@ -11768,60 +11760,60 @@
       <c r="AC5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
+      <c r="AD5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
     </row>
     <row r="6" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>43874</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>43875</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
         <v>1</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16">
         <v>1</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="19" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="Z6" s="20"/>
+      <c r="W6" s="13"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="12" t="s">
         <v>47</v>
       </c>
@@ -11831,58 +11823,58 @@
       <c r="AC6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
+      <c r="AD6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>43874</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>43875</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="19" t="s">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="Z7" s="20"/>
+      <c r="W7" s="13"/>
+      <c r="Z7" s="13"/>
       <c r="AA7" s="12" t="s">
         <v>47</v>
       </c>
@@ -11892,62 +11884,62 @@
       <c r="AC7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
+      <c r="AD7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
     </row>
     <row r="8" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>43874</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>43875</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
         <v>2</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
         <v>2</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16">
         <v>46</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <v>5</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="19" t="s">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="Z8" s="20"/>
+      <c r="W8" s="13"/>
+      <c r="Z8" s="13"/>
       <c r="AA8" s="12" t="s">
         <v>47</v>
       </c>
@@ -11957,58 +11949,58 @@
       <c r="AC8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
+      <c r="AD8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
     </row>
     <row r="9" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>43874</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>43875</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17">
-        <v>11</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="19" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16">
+        <v>10</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="Z9" s="20"/>
+      <c r="W9" s="13"/>
+      <c r="Z9" s="13"/>
       <c r="AA9" s="12" t="s">
         <v>47</v>
       </c>
@@ -12018,58 +12010,58 @@
       <c r="AC9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
+      <c r="AD9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
     </row>
     <row r="10" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>43874</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>43875</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16">
         <v>1</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="19" t="s">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="Z10" s="20"/>
+      <c r="W10" s="13"/>
+      <c r="Z10" s="13"/>
       <c r="AA10" s="12" t="s">
         <v>47</v>
       </c>
@@ -12079,60 +12071,60 @@
       <c r="AC10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
+      <c r="AD10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
     </row>
     <row r="11" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>43874</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>43875</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16">
         <v>1</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16">
         <v>1</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="19" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="Z11" s="20"/>
+      <c r="W11" s="13"/>
+      <c r="Z11" s="13"/>
       <c r="AA11" s="12" t="s">
         <v>47</v>
       </c>
@@ -12142,58 +12134,58 @@
       <c r="AC11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
+      <c r="AD11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
     </row>
     <row r="12" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>43874</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>43875</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17">
-        <v>1</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="19" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="W12" s="13"/>
+      <c r="Z12" s="13"/>
       <c r="AA12" s="12" t="s">
         <v>47</v>
       </c>
@@ -12203,58 +12195,58 @@
       <c r="AC12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
+      <c r="AD12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
     </row>
     <row r="13" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>43874</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>43875</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16">
         <v>4</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="19" t="s">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W13" s="20"/>
-      <c r="Z13" s="20"/>
+      <c r="W13" s="13"/>
+      <c r="Z13" s="13"/>
       <c r="AA13" s="12" t="s">
         <v>47</v>
       </c>
@@ -12264,58 +12256,58 @@
       <c r="AC13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
+      <c r="AD13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
     </row>
     <row r="14" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>43874</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>43875</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16">
         <v>1</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="19" t="s">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W14" s="20"/>
-      <c r="Z14" s="20"/>
+      <c r="W14" s="13"/>
+      <c r="Z14" s="13"/>
       <c r="AA14" s="12" t="s">
         <v>47</v>
       </c>
@@ -12325,24 +12317,24 @@
       <c r="AC14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
+      <c r="AD14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
     </row>
     <row r="15" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>43874</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>43875</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -12351,7 +12343,6 @@
       <c r="K15" s="12">
         <v>1</v>
       </c>
-      <c r="L15" s="12"/>
       <c r="M15" s="12">
         <v>19</v>
       </c>
@@ -12361,20 +12352,20 @@
       <c r="P15" s="12">
         <v>1</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="13">
         <v>43875.3694444444</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="19" t="s">
         <v>45</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="W15" s="20"/>
-      <c r="Z15" s="20"/>
+      <c r="W15" s="13"/>
+      <c r="Z15" s="13"/>
       <c r="AA15" s="12" t="s">
         <v>47</v>
       </c>
@@ -12384,15 +12375,12 @@
       <c r="AC15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
+      <c r="AD15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
@@ -12408,14 +12396,17 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F16:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12434,7 +12425,7 @@
       <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
